--- a/assets/file/MauThongBao.xlsx
+++ b/assets/file/MauThongBao.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\dienluc\src\assets\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AED4A4-B315-4BB4-B92B-A97E1DE529CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="84" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mail" sheetId="1" r:id="rId1"/>
@@ -14,17 +20,61 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mail!$A$1:$E$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Thuc Tran</author>
     <author>THUCSPC</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{73D4D03A-65F9-4068-9799-FBEDF12C8E61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thuc Tran:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Các nội dung từ cột này sẽ không được phần mềm đọc nội dung. Bạn có thể tùy ý quản lý</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -39,15 +89,25 @@
         </r>
         <r>
           <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>- Không được thay đổi thư tự cột màu vàng.
+- Nội dung Tùy chọn dành để Vlookup dữ liệu từ sheet hoặc file excel khác nếu cần.
+- Hàng dữ  liệu mẫu ví dụ có thể xóa đi được.
+- Bạn có thể để hoặc xóa comment này.</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">- Không được thay đổi thư tự cột màu vàng.
-- Nội dung ID1 và ID2 chỉ dành để Vlookup dữ liệu từ file excel khác.
-- Hàng dữ  liệu mẫu ví dụ có thể xóa đi được.
-- Bạn có thể để hoặc xóa comment này.
+          <t xml:space="preserve">
+- 
 </t>
         </r>
       </text>
@@ -57,10 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>MSNV2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Email</t>
   </si>
@@ -77,23 +134,29 @@
     <t>thucspc@gmail.com</t>
   </si>
   <si>
-    <t>Họ và tên</t>
-  </si>
-  <si>
     <t>Danh xưng</t>
   </si>
   <si>
-    <t>MSNV1</t>
+    <t>Tin nhắn riêng</t>
+  </si>
+  <si>
+    <t>Chọn gửi</t>
+  </si>
+  <si>
+    <t>Tùy chọn</t>
+  </si>
+  <si>
+    <t>Họ và tên / Đơn vị</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +224,18 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -222,7 +297,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -262,16 +337,20 @@
       <alignment vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Comma 2 2" xfId="4"/>
-    <cellStyle name="Comma 3" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="6"/>
-    <cellStyle name="Normal 4" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -340,6 +419,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -387,7 +469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,9 +502,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,6 +554,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -630,11 +746,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -643,49 +759,56 @@
     <col min="2" max="2" width="10.44140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="21.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="34.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="5"/>
+    <col min="5" max="5" width="25.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="B2" s="8">
         <v>15082</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A1:E2"/>
+  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
+  <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A2">
     <cfRule type="duplicateValues" dxfId="4" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
@@ -696,7 +819,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -705,7 +828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -719,7 +842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/assets/file/MauThongBao.xlsx
+++ b/assets/file/MauThongBao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\dienluc\src\assets\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thucs\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AED4A4-B315-4BB4-B92B-A97E1DE529CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFAF99E-E789-4B9E-9B85-DB38955CAD57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="data2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mail!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mail!$A$1:$K$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
     <author>THUCSPC</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{73D4D03A-65F9-4068-9799-FBEDF12C8E61}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{EBD73548-CDC6-44B1-B727-5F4B2E40E86D}">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Thuc Tran:</t>
         </r>
@@ -58,19 +58,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Các nội dung từ cột này sẽ không được phần mềm đọc nội dung. Bạn có thể tùy ý quản lý</t>
+Cột này sẽ được gửi riêng nếu có nội dung.</t>
         </r>
       </text>
     </comment>
@@ -89,25 +80,15 @@
         </r>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>- Không được thay đổi thư tự cột màu vàng.
-- Nội dung Tùy chọn dành để Vlookup dữ liệu từ sheet hoặc file excel khác nếu cần.
-- Hàng dữ  liệu mẫu ví dụ có thể xóa đi được.
-- Bạn có thể để hoặc xóa comment này.</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-- 
+          <t xml:space="preserve">- Không được thay đổi thư tự cột màu vàng.
+- Nội dung ID1 và ID2 chỉ dành để Vlookup dữ liệu từ file excel khác.
+- Hàng dữ  liệu mẫu ví dụ có thể xóa đi được.
+- Bạn có thể để hoặc xóa comment này.
 </t>
         </r>
       </text>
@@ -117,36 +98,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>15082</t>
-  </si>
-  <si>
     <t>Ông</t>
   </si>
   <si>
-    <t>Trần Đại Thức</t>
-  </si>
-  <si>
     <t>thucspc@gmail.com</t>
   </si>
   <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
     <t>Danh xưng</t>
   </si>
   <si>
-    <t>Tin nhắn riêng</t>
-  </si>
-  <si>
-    <t>Chọn gửi</t>
-  </si>
-  <si>
-    <t>Tùy chọn</t>
-  </si>
-  <si>
-    <t>Họ và tên / Đơn vị</t>
+    <t>Bà</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Trần Thị B1</t>
+  </si>
+  <si>
+    <t>Trần Thị B2</t>
+  </si>
+  <si>
+    <t>Trần Thị B3</t>
+  </si>
+  <si>
+    <t>Trần Thị B4</t>
+  </si>
+  <si>
+    <t>Trần Thị B5</t>
+  </si>
+  <si>
+    <t>Trần Thị B6</t>
+  </si>
+  <si>
+    <t>Trần Thị B7</t>
+  </si>
+  <si>
+    <t>Trần Thị B8</t>
+  </si>
+  <si>
+    <t>Trần Thị B9</t>
+  </si>
+  <si>
+    <t>Trần Thị B10</t>
+  </si>
+  <si>
+    <t>Trần Thị B11</t>
+  </si>
+  <si>
+    <t>Chọn để gửi</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Sổ 72</t>
+  </si>
+  <si>
+    <t>Sổ 73</t>
+  </si>
+  <si>
+    <t>Sổ 74</t>
+  </si>
+  <si>
+    <t>Sổ</t>
+  </si>
+  <si>
+    <t>Hoàng Kim Thanh</t>
+  </si>
+  <si>
+    <t>Dona</t>
+  </si>
+  <si>
+    <t>Dona 2</t>
+  </si>
+  <si>
+    <t>Mã PK</t>
+  </si>
+  <si>
+    <t>PK0500001</t>
+  </si>
+  <si>
+    <t>PK0500002</t>
+  </si>
+  <si>
+    <t>PK0500003</t>
+  </si>
+  <si>
+    <t>PK0500004</t>
+  </si>
+  <si>
+    <t>PK0500005</t>
+  </si>
+  <si>
+    <t>PK0500006</t>
+  </si>
+  <si>
+    <t>PK0500007</t>
+  </si>
+  <si>
+    <t>PK0500008</t>
+  </si>
+  <si>
+    <t>PK0500009</t>
+  </si>
+  <si>
+    <t>PK0500010</t>
+  </si>
+  <si>
+    <t>PK0500011</t>
+  </si>
+  <si>
+    <t>PK0500012</t>
+  </si>
+  <si>
+    <t>thucspc@hotmail.com</t>
+  </si>
+  <si>
+    <t>thucspc@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ngày gửi</t>
+  </si>
+  <si>
+    <t>Tuyến</t>
+  </si>
+  <si>
+    <t>Xin thông báo quý khách hàng:</t>
   </si>
 </sst>
 </file>
@@ -154,9 +243,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,16 +318,23 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -284,20 +380,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -325,10 +421,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
       <protection locked="0"/>
@@ -339,6 +431,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -352,7 +452,77 @@
     <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -747,83 +917,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18" style="6" customWidth="1"/>
     <col min="4" max="4" width="21.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="5"/>
+    <col min="5" max="5" width="32.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>"Mã khách hàng của Quý khách là "&amp;J2</f>
+        <v>Mã khách hàng của Quý khách là PK0500001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>475</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="12">
+        <v>44109</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="shared" ref="F3:F13" si="0">"Mã khách hàng của Quý khách là "&amp;J3</f>
+        <v>Mã khách hàng của Quý khách là PK0500002</v>
+      </c>
+      <c r="G3" s="5">
+        <v>478</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="12">
+        <v>44109</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>15082</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="4" spans="1:11" ht="26.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11"/>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Mã khách hàng của Quý khách là PK0500003</v>
+      </c>
+      <c r="G4" s="5">
+        <v>477</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="26.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Mã khách hàng của Quý khách là PK0500004</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="26.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Mã khách hàng của Quý khách là PK0500005</v>
+      </c>
+      <c r="G6" s="4">
+        <v>475</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="26.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Mã khách hàng của Quý khách là PK0500006</v>
+      </c>
+      <c r="G7" s="5">
+        <v>478</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="26.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Mã khách hàng của Quý khách là PK0500007</v>
+      </c>
+      <c r="G8" s="5">
+        <v>477</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Mã khách hàng của Quý khách là PK0500008</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="12">
+        <v>44109</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="26.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Mã khách hàng của Quý khách là PK0500009</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="26.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Mã khách hàng của Quý khách là PK0500010</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="26.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Mã khách hàng của Quý khách là PK0500011</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="26.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Mã khách hàng của Quý khách là PK0500012</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K13" xr:uid="{0B4DCEB0-49E8-422C-9D80-D544B8237F57}">
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="4" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="11" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="3" priority="1" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",B1)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{6DF94AE5-D7E7-49E6-87F5-6F824C73A58B}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{C1B16328-A49A-471A-B6F2-A496AB964F32}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{23983688-DC27-45F5-8A0B-5E99EB0B4166}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -832,7 +1328,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
